--- a/Team-Data/2007-08/3-27-2007-08.xlsx
+++ b/Team-Data/2007-08/3-27-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2</v>
       </c>
       <c r="AD2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -759,13 +826,13 @@
         <v>6</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL2" t="n">
         <v>27</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1126,7 +1193,7 @@
         <v>25</v>
       </c>
       <c r="AJ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK4" t="n">
         <v>22</v>
@@ -1153,7 +1220,7 @@
         <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>25</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E7" t="n">
         <v>45</v>
       </c>
       <c r="F7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.625</v>
+        <v>0.634</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J7" t="n">
         <v>79</v>
       </c>
       <c r="K7" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O7" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="P7" t="n">
         <v>25.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>10.8</v>
       </c>
       <c r="S7" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T7" t="n">
         <v>43.3</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V7" t="n">
         <v>13.1</v>
@@ -1636,25 +1703,25 @@
         <v>6</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z7" t="n">
         <v>21.9</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE7" t="n">
         <v>10</v>
@@ -1663,28 +1730,28 @@
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1693,10 +1760,10 @@
         <v>13</v>
       </c>
       <c r="AQ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
@@ -1714,22 +1781,22 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY7" t="n">
         <v>8</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -1758,19 +1825,19 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E8" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="n">
         <v>28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.611</v>
+        <v>0.606</v>
       </c>
       <c r="H8" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I8" t="n">
         <v>39.9</v>
@@ -1797,22 +1864,22 @@
         <v>30.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R8" t="n">
         <v>11.4</v>
       </c>
       <c r="S8" t="n">
-        <v>32.4</v>
+        <v>32.5</v>
       </c>
       <c r="T8" t="n">
         <v>43.9</v>
       </c>
       <c r="U8" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V8" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W8" t="n">
         <v>9.300000000000001</v>
@@ -1821,7 +1888,7 @@
         <v>6.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
@@ -1830,13 +1897,13 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1878,10 +1945,10 @@
         <v>17</v>
       </c>
       <c r="AR8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>5</v>
@@ -1890,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1899,7 +1966,7 @@
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.708</v>
+        <v>0.704</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
@@ -1958,37 +2025,37 @@
         <v>36.6</v>
       </c>
       <c r="J9" t="n">
-        <v>79.8</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
         <v>0.459</v>
       </c>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M9" t="n">
         <v>16.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.375</v>
+        <v>0.377</v>
       </c>
       <c r="O9" t="n">
         <v>18.5</v>
       </c>
       <c r="P9" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.763</v>
+        <v>0.764</v>
       </c>
       <c r="R9" t="n">
         <v>11.7</v>
       </c>
       <c r="S9" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U9" t="n">
         <v>22.7</v>
@@ -2012,13 +2079,13 @@
         <v>19.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,13 +2097,13 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>13</v>
@@ -2048,7 +2115,7 @@
         <v>21</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>18</v>
@@ -2057,16 +2124,16 @@
         <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
         <v>27</v>
       </c>
       <c r="AT9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU9" t="n">
         <v>7</v>
@@ -2084,7 +2151,7 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="n">
         <v>27</v>
       </c>
       <c r="G10" t="n">
-        <v>0.62</v>
+        <v>0.614</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2146,22 +2213,22 @@
         <v>0.462</v>
       </c>
       <c r="L10" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="M10" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.353</v>
+        <v>0.351</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P10" t="n">
         <v>25</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.749</v>
+        <v>0.748</v>
       </c>
       <c r="R10" t="n">
         <v>12.5</v>
@@ -2173,7 +2240,7 @@
         <v>42.7</v>
       </c>
       <c r="U10" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="V10" t="n">
         <v>13.2</v>
@@ -2182,13 +2249,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA10" t="n">
         <v>21.5</v>
@@ -2197,22 +2264,22 @@
         <v>111</v>
       </c>
       <c r="AC10" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI10" t="n">
         <v>1</v>
@@ -2230,7 +2297,7 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2251,7 +2318,7 @@
         <v>9</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
@@ -2263,7 +2330,7 @@
         <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ10" t="n">
         <v>28</v>
@@ -2275,7 +2342,7 @@
         <v>1</v>
       </c>
       <c r="BC10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
@@ -2394,7 +2461,7 @@
         <v>4</v>
       </c>
       <c r="AH11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
         <v>14</v>
@@ -2403,7 +2470,7 @@
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL11" t="n">
         <v>12</v>
@@ -2421,13 +2488,13 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR11" t="n">
         <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -2457,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="BC11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2603,7 +2670,7 @@
         <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2615,7 +2682,7 @@
         <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
         <v>25</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2994,7 +3061,7 @@
         <v>14</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3173,7 +3240,7 @@
         <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ15" t="n">
         <v>5</v>
@@ -3182,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="BB15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E16" t="n">
         <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" t="n">
-        <v>0.181</v>
+        <v>0.183</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>34.8</v>
+        <v>35</v>
       </c>
       <c r="J16" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="K16" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L16" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
         <v>15.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O16" t="n">
         <v>17.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.724</v>
+        <v>0.722</v>
       </c>
       <c r="R16" t="n">
         <v>9.1</v>
@@ -3262,7 +3329,7 @@
         <v>28.8</v>
       </c>
       <c r="T16" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="U16" t="n">
         <v>20.2</v>
@@ -3286,13 +3353,13 @@
         <v>20.5</v>
       </c>
       <c r="AB16" t="n">
-        <v>92.3</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3304,7 +3371,7 @@
         <v>30</v>
       </c>
       <c r="AH16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI16" t="n">
         <v>28</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>24</v>
@@ -3322,7 +3389,7 @@
         <v>24</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3331,7 +3398,7 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3346,7 +3413,7 @@
         <v>24</v>
       </c>
       <c r="AV16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3537,7 +3604,7 @@
         <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ17" t="n">
         <v>20</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3698,10 +3765,10 @@
         <v>21</v>
       </c>
       <c r="AR18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT18" t="n">
         <v>19</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-4.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>29</v>
@@ -3868,7 +3935,7 @@
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3880,7 +3947,7 @@
         <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AE20" t="n">
         <v>3</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4241,13 +4308,13 @@
         <v>11</v>
       </c>
       <c r="AQ21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
         <v>6</v>
       </c>
       <c r="AS21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT21" t="n">
         <v>15</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -4390,10 +4457,10 @@
         <v>9</v>
       </c>
       <c r="AF22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>20</v>
@@ -4447,7 +4514,7 @@
         <v>26</v>
       </c>
       <c r="AY22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ22" t="n">
         <v>15</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG23" t="n">
         <v>16</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>7</v>
@@ -4760,10 +4827,10 @@
         <v>7</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ24" t="n">
         <v>8</v>
@@ -4796,7 +4863,7 @@
         <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4823,7 +4890,7 @@
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" t="n">
         <v>38</v>
       </c>
       <c r="F25" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25" t="n">
-        <v>0.521</v>
+        <v>0.528</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
@@ -4870,10 +4937,10 @@
         <v>35.8</v>
       </c>
       <c r="J25" t="n">
-        <v>79.5</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L25" t="n">
         <v>6.5</v>
@@ -4882,19 +4949,19 @@
         <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="O25" t="n">
         <v>17.6</v>
       </c>
       <c r="P25" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R25" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S25" t="n">
         <v>29.7</v>
@@ -4906,7 +4973,7 @@
         <v>21.2</v>
       </c>
       <c r="V25" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
@@ -4918,40 +4985,40 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB25" t="n">
         <v>95.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.7</v>
+        <v>-0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
       </c>
       <c r="AF25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL25" t="n">
         <v>15</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>23</v>
@@ -4969,13 +5036,13 @@
         <v>25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
         <v>26</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5139,7 +5206,7 @@
         <v>17</v>
       </c>
       <c r="AM26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN26" t="n">
         <v>12</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>4.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5306,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="AH27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI27" t="n">
         <v>26</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
         <v>25</v>
@@ -5369,7 +5436,7 @@
         <v>24</v>
       </c>
       <c r="BC27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>29</v>
@@ -5548,7 +5615,7 @@
         <v>26</v>
       </c>
       <c r="BB28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
         <v>30</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>2.9</v>
       </c>
       <c r="AD29" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>17</v>
       </c>
       <c r="AF29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG29" t="n">
         <v>17</v>
@@ -5697,7 +5764,7 @@
         <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR29" t="n">
         <v>26</v>
@@ -5733,7 +5800,7 @@
         <v>13</v>
       </c>
       <c r="BC29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>6.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>7</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6031,7 +6098,7 @@
         <v>14</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
         <v>2</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-27-2007-08</t>
+          <t>2008-03-27</t>
         </is>
       </c>
     </row>
